--- a/results_iteration_data/CP1000_RD_20C/iteration_1/prediction_1/TDS_measurement.xlsx
+++ b/results_iteration_data/CP1000_RD_20C/iteration_1/prediction_1/TDS_measurement.xlsx
@@ -498,22 +498,22 @@
         <v>120</v>
       </c>
       <c r="B3" t="n">
-        <v>3.20482087</v>
+        <v>6.33987236</v>
       </c>
       <c r="C3" t="n">
-        <v>2.62705564</v>
+        <v>5.31288671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.578397705</v>
+        <v>1.02712834</v>
       </c>
       <c r="E3" t="n">
-        <v>0.408928436</v>
+        <v>0.808823059</v>
       </c>
       <c r="F3" t="n">
-        <v>0.335048889</v>
+        <v>0.677756714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0737985458</v>
+        <v>0.131035278</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>600</v>
       </c>
       <c r="B4" t="n">
-        <v>3.53623748</v>
+        <v>9.10439205</v>
       </c>
       <c r="C4" t="n">
-        <v>2.91086125</v>
+        <v>7.68162394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62613031</v>
+        <v>1.42215121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.451192383</v>
+        <v>1.16154647</v>
       </c>
       <c r="F4" t="n">
-        <v>0.371339569</v>
+        <v>0.980113342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0798866196</v>
+        <v>0.181436478</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>1800</v>
       </c>
       <c r="B5" t="n">
-        <v>4.27107954</v>
+        <v>9.262125019999999</v>
       </c>
       <c r="C5" t="n">
-        <v>3.54062986</v>
+        <v>7.81554699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.731468323</v>
+        <v>1.44507027</v>
       </c>
       <c r="E5" t="n">
-        <v>0.544950439</v>
+        <v>1.18149018</v>
       </c>
       <c r="F5" t="n">
-        <v>0.451666656</v>
+        <v>0.997568359</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0933065414</v>
+        <v>0.184240067</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>7200</v>
       </c>
       <c r="B6" t="n">
-        <v>6.52123308</v>
+        <v>9.26212978</v>
       </c>
       <c r="C6" t="n">
-        <v>5.4677515</v>
+        <v>7.81555319</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05310321</v>
+        <v>1.44507027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.831915466</v>
+        <v>1.18201518</v>
       </c>
       <c r="F6" t="n">
-        <v>0.697569519</v>
+        <v>0.997584167</v>
       </c>
       <c r="G6" t="n">
-        <v>0.13436644</v>
+        <v>0.184240128</v>
       </c>
     </row>
   </sheetData>
